--- a/Assets/Resources/Data/Rules.xlsx
+++ b/Assets/Resources/Data/Rules.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\unity\Assets\Resources\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C72CB8-9995-4293-B719-4CF92E21A7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>Id</t>
   </si>
@@ -281,11 +287,6 @@
     <t>祝福</t>
   </si>
   <si>
-    <t>祝福状態になると一定時間待機状態になり
-自身を除く味方のHpを回復し続けます。
-祝福状態は祝福を使用した対象が攻撃を受けると解除されます。</t>
-  </si>
-  <si>
     <t>ヘカテー</t>
   </si>
   <si>
@@ -342,18 +343,58 @@
 Hp以外のステータスは高いですが
 有効活用するためにHpを操作する必要があるため上級者向けです。</t>
   </si>
+  <si>
+    <t>挑発</t>
+    <rPh sb="0" eb="2">
+      <t>チョウハツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>祝福状態になると一定時間待機状態になり
+自身を除く味方のHpを回復し続けます。
+祝福状態は祝福を使用した対象が攻撃を受けると解除されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>挑発状態になると
+攻撃対象が挑発された相手に固定されます。
+挑発状態は行動後一定確率で解除されます。</t>
+    <rPh sb="0" eb="2">
+      <t>チョウハツ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>コウゲキタイショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウハツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>チョウハツ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>コウドウゴ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>イッテイカクリツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,345 +403,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -708,320 +434,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
-    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
-    <cellStyle name="メモ" xfId="12" builtinId="10"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1279,54 +722,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1337,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1348,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1359,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1370,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1381,238 +824,238 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>101</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>101</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>102</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>102</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>103</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>103</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>104</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>104</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>201</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>201</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>202</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>202</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>203</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>203</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>204</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>204</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>205</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>205</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>206</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>206</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>207</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>207</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>208</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>208</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>209</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>209</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>210</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>210</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>211</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>211</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>212</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>212</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>213</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>213</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>214</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>214</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>215</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>215</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>216</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>216</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>301</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>301</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>302</v>
       </c>
@@ -1623,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>303</v>
       </c>
@@ -1634,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>304</v>
       </c>
@@ -1645,7 +1088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>305</v>
       </c>
@@ -1656,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1668,393 +1111,401 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="1"/>
-    <col min="2" max="2" width="51.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.9090909090909" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="51.36328125" customWidth="1"/>
+    <col min="3" max="3" width="43.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="65" spans="1:3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" ht="65" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="39" spans="1:3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" ht="39" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="104" spans="1:3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:3" ht="104" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="65" spans="1:3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" ht="65" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="156" spans="1:3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" ht="156" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="104" spans="1:3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" ht="104" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" ht="39" spans="1:3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="221" spans="1:3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>101</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="117" spans="1:3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" ht="117" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>102</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="195" spans="1:3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>103</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="91" spans="1:3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" ht="91" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>104</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="104" spans="1:3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" ht="104" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>201</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="65" spans="1:3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" ht="65" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>202</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="78" spans="1:3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" ht="78" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>203</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="104" spans="1:3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" ht="104" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>204</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="117" spans="1:3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" ht="117" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>205</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="65" spans="1:3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" ht="65" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>206</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="104" spans="1:3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" ht="104" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>207</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" ht="156" spans="1:3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" ht="156" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>208</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" ht="91" spans="1:3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" ht="91" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>209</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="104" spans="1:3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" ht="104" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>210</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" ht="91" spans="1:3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" ht="91" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>211</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" ht="26" spans="1:3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>212</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" ht="52" spans="1:3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" ht="52" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>213</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" ht="65" spans="1:3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" ht="65" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>214</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="65" spans="1:3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" ht="65" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>215</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="65" spans="1:3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" ht="52" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>216</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="65" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>217</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="130" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>301</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" ht="130" spans="1:3">
-      <c r="A29" s="1">
-        <v>301</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="130" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>302</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" ht="130" spans="1:3">
-      <c r="A30" s="1">
-        <v>302</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="169" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>303</v>
+      </c>
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" ht="169" spans="1:3">
-      <c r="A31" s="1">
-        <v>303</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="156" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>304</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" ht="156" spans="1:3">
-      <c r="A32" s="1">
-        <v>304</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="169" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>305</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" ht="169" spans="1:3">
-      <c r="A33" s="1">
-        <v>305</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>69</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/Rules.xlsx
+++ b/Assets/Resources/Data/Rules.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\unity\Assets\Resources\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C72CB8-9995-4293-B719-4CF92E21A7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Id</t>
   </si>
@@ -30,9 +24,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Text</t>
@@ -152,6 +143,14 @@
 またヒロインだった場合はゲームオーバーになります。</t>
   </si>
   <si>
+    <t>バトル状態の効果について</t>
+  </si>
+  <si>
+    <t>基本的にバトル中に付与する効果は重複しません。
+例外的に条件を満たすことで効果が重複するステートが存在します。
+重複の有無・条件は各ステート項目の記載で確認できます。</t>
+  </si>
+  <si>
     <t>戦闘不能</t>
   </si>
   <si>
@@ -167,7 +166,9 @@
   <si>
     <t>バトル中Demigod魔法を使用すると神化状態になります。
 神化状態になったアルケミストは
-ATK・DEF・SPDが神格適性の値だけ上昇します。</t>
+ATK・DEF・SPDが神格適性の値だけ上昇します。
+神化状態の効果は重複せず
+バトル中1度だけ付与することが可能です。</t>
   </si>
   <si>
     <t>鈍足</t>
@@ -175,7 +176,9 @@
   <si>
     <t>鈍足状態になると行動できるまでの時間が遅延します。
 鈍足状態は状態異常回復効果で解除できます。
-また状態異常無効状態中は鈍足効果はかかりません。</t>
+また状態異常無効状態中は鈍足効果はかかりません。
+鈍足状態の効果は重複せず
+鈍足状態の対象に新たに付与はできません。</t>
   </si>
   <si>
     <t>スタン</t>
@@ -185,7 +188,9 @@
 一部の効果が発動しなくなります。
 スタン状態は状態異常回復効果で解除できます。
 また状態異常無効状態中はスタン効果はかかりません。
-スタン状態の時、CA効果は発動しません。</t>
+スタン状態の時、CA効果は発動しません。
+スタン状態の効果は重複せず
+スタン状態の対象に新たに付与はできません。</t>
   </si>
   <si>
     <t>火傷</t>
@@ -194,7 +199,11 @@
     <t>火傷状態になると行動後に一定のダメージを受けます。
 火傷状態は状態異常回復効果で解除できます。
 また状態異常無効状態中は火傷効果はかかりません。
-火傷状態によるダメージは、攻撃無効効果では無効になりません。</t>
+火傷状態を付与した使用者が戦闘不能になった時
+その効果は解除されます。
+火傷状態によるダメージは、攻撃無効効果では無効になりません。
+火傷状態の効果は
+付与時の魔法名が異なる場合は重複してダメージが発生します。</t>
   </si>
   <si>
     <t>暗闇</t>
@@ -202,7 +211,9 @@
   <si>
     <t>暗闇状態になると魔法の成功率が減少します。
 暗闇状態は状態異常回復効果で解除できます。
-また状態異常無効状態中は暗闇効果はかかりません。</t>
+また状態異常無効状態中は暗闇効果はかかりません。
+暗闇状態の効果は重複せず
+暗闇状態の対象に新たに付与はできません。</t>
   </si>
   <si>
     <t>凍結</t>
@@ -211,7 +222,9 @@
     <t>凍結状態になると
 魔法でダメージを与えた時使用者もダメージを受けます。
 凍結状態は1回攻撃をするか状態異常回復効果で解除できます。
-また状態異常無効状態中は凍結効果はかかりません。</t>
+また状態異常無効状態中は凍結効果はかかりません。
+凍結状態の効果は重複せず
+凍結状態の対象に新たに付与はできません。</t>
   </si>
   <si>
     <t>拘束</t>
@@ -222,8 +235,12 @@
 さらに一定ダメージを受け続けます。
 拘束状態は拘束を使用した対象が攻撃を受けるか
 拘束を使用した対象が次の行動をする前に解除されます。
+拘束状態を付与した使用者が戦闘不能になった時
+その効果は解除されます。
 拘束状態は状態異常回復効果で解除できます。
-また状態異常無効状態中は拘束効果はかかりません。</t>
+また状態異常無効状態中は拘束効果はかかりません。
+拘束状態の効果は重複せず
+拘束状態の対象に新たに付与はできません。</t>
   </si>
   <si>
     <t>呪い</t>
@@ -232,7 +249,9 @@
     <t>呪い状態になると
 魔法でダメージを受けた時使用者もダメージを受けます。
 呪い状態は状態異常回復効果で解除できます。
-また状態異常無効状態中は呪い効果はかかりません。</t>
+また状態異常無効状態中は呪い効果はかかりません。
+呪い状態の効果は
+付与時の魔法名が異なる場合は重複してダメージが発生します。</t>
   </si>
   <si>
     <t>アンデッド</t>
@@ -242,7 +261,31 @@
 行動後Hpが回復し1回だけ戦闘不能を回避します。
 アンデッド状態は戦闘不能を回避すると解除されます。
 アンデッド特攻効果によりダメージを受けた時
-アンデッド効果は発動しません。</t>
+アンデッド効果は発動しません。
+アンデッド状態の効果は重複せず
+アンデッド状態の対象に新たに付与はできません。</t>
+  </si>
+  <si>
+    <t>能力アップバフ</t>
+  </si>
+  <si>
+    <t>能力アップバフは対象のステータスを上昇します。
+能力アップバフ効果は下記効果が該当します。
+最大Hpアップ/最大Mpアップ/攻撃アップ/防御アップ/速度アップ/
+クリティカル発生率アップ/命中アップ/回避アップ狙われ率アップ/
+狙われ率ダウン
+能力アップバフの効果は
+付与時の魔法名が異なる場合は重複して効果が発生します。
+速度ステータスをの上限は83です。
+命中率の下限値は10%のため
+回避アップ効果が100%を超えても攻撃が命中する場合があります。</t>
+  </si>
+  <si>
+    <t>ダメージ威力アップ</t>
+  </si>
+  <si>
+    <t>ダメージ威力アップは攻撃ダメージの効果値を上昇します。
+ダメージ威力アップの効果は重複して効果が発生します。</t>
   </si>
   <si>
     <t>状態異常無効</t>
@@ -251,7 +294,9 @@
     <t>状態異常無効状態になると
 鈍足・スタン・火傷・暗闇・凍結状態にならなくなります。
 ただし既に状態異常無効で無効化できる状態に掛かっていた場合
-その効果は解除されません。</t>
+その効果は解除されません。
+状態異常無効状態の効果は重複せず
+状態異常無効状態の対象に新たに付与はできません。</t>
   </si>
   <si>
     <t>対象範囲延長</t>
@@ -265,15 +310,19 @@
   </si>
   <si>
     <t>アクセル状態になると行動を終える度にSPDがアップします。
-SPDは上限の100までアップします。</t>
-  </si>
-  <si>
-    <t>CA</t>
+SPDは上限の100までアップします。
+アクセル状態の効果は重複せず
+アクセル状態の対象に新たに付与はできません。</t>
+  </si>
+  <si>
+    <t>CA(カウンターアタック)</t>
   </si>
   <si>
     <t>CA状態になると一定時間待機状態になり
 攻撃を受けた時DEFの値だけダメージを反射します。
-スタン・拘束状態の時CA効果は発動しません。</t>
+スタン・拘束状態の時CA効果は発動しません。
+CA状態の効果は重複せず
+CA状態の対象に新たに付与はできません。</t>
   </si>
   <si>
     <t>攻撃無効</t>
@@ -281,10 +330,41 @@
   <si>
     <t>攻撃無効状態になると
 一定回数攻撃を受けた時のダメージが0になります。
-火傷状態によるダメージは無効になりません。</t>
+火傷状態によるダメージは無効になりません。
+攻撃無効状態の効果は重複せず
+攻撃無効状態の対象に新たに付与はできません。</t>
+  </si>
+  <si>
+    <t>挑発</t>
+  </si>
+  <si>
+    <t>挑発状態になると
+攻撃対象が挑発された相手に固定されます。
+挑発状態は対象が行動した後一定確率で解除されます。
+挑発状態の効果は重複せず
+挑発状態の対象に新たに付与はできません。</t>
   </si>
   <si>
     <t>祝福</t>
+  </si>
+  <si>
+    <t>祝福状態になると一定時間待機状態になり
+自身を除く味方のHpを回復し続けます。
+祝福状態は祝福を使用した対象が攻撃を受けると解除されます。
+祝福状態を付与した使用者が戦闘不能になった時
+その効果は解除されます。
+祝福状態の効果は
+付与時の魔法名が異なる場合は重複して回復が発生します。</t>
+  </si>
+  <si>
+    <t>リジェネ</t>
+  </si>
+  <si>
+    <t>リジェネ状態になると行動後に回復します。
+リジェネ状態を付与した使用者が戦闘不能になった時
+その効果は解除されます。
+リジェネ状態の効果は
+付与時の魔法名が異なる場合は重複して回復が発生します。</t>
   </si>
   <si>
     <t>ヘカテー</t>
@@ -343,58 +423,18 @@
 Hp以外のステータスは高いですが
 有効活用するためにHpを操作する必要があるため上級者向けです。</t>
   </si>
-  <si>
-    <t>挑発</t>
-    <rPh sb="0" eb="2">
-      <t>チョウハツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>祝福状態になると一定時間待機状態になり
-自身を除く味方のHpを回復し続けます。
-祝福状態は祝福を使用した対象が攻撃を受けると解除されます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>挑発状態になると
-攻撃対象が挑発された相手に固定されます。
-挑発状態は行動後一定確率で解除されます。</t>
-    <rPh sb="0" eb="2">
-      <t>チョウハツ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>コウゲキタイショウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チョウハツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>チョウハツ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>コウドウゴ</t>
-    </rPh>
-    <rPh sb="39" eb="43">
-      <t>イッテイカクリツ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,27 +446,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -434,9 +796,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -454,17 +1058,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
+    <cellStyle name="メモ" xfId="12" builtinId="10"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -722,21 +1370,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -758,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -769,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -780,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -791,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -802,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -813,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -824,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>101</v>
       </c>
@@ -835,7 +1483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>102</v>
       </c>
@@ -846,7 +1494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>103</v>
       </c>
@@ -857,7 +1505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>104</v>
       </c>
@@ -868,644 +1516,733 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
+        <v>200</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
         <v>201</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>201</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>202</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>202</v>
       </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
         <v>203</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>203</v>
       </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
         <v>204</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>204</v>
       </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
         <v>205</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>205</v>
       </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
         <v>206</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>206</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
         <v>207</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>207</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
         <v>208</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>208</v>
       </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
         <v>209</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>209</v>
       </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
         <v>210</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>210</v>
       </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>211</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>211</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
         <v>212</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>212</v>
       </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
         <v>213</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>213</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
         <v>214</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>214</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
         <v>215</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>215</v>
       </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>216</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>216</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>217</v>
+      </c>
+      <c r="B30">
+        <v>217</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>218</v>
+      </c>
+      <c r="B31">
+        <v>218</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>219</v>
+      </c>
+      <c r="B32">
+        <v>219</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>220</v>
+      </c>
+      <c r="B33">
+        <v>220</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>301</v>
       </c>
-      <c r="B29">
+      <c r="B34">
         <v>301</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
         <v>302</v>
       </c>
-      <c r="B30">
+      <c r="B35">
         <v>302</v>
       </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
         <v>303</v>
       </c>
-      <c r="B31">
+      <c r="B36">
         <v>303</v>
       </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>304</v>
       </c>
-      <c r="B32">
+      <c r="B37">
         <v>304</v>
       </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
         <v>305</v>
       </c>
-      <c r="B33">
+      <c r="B38">
         <v>305</v>
       </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C38">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="51.36328125" customWidth="1"/>
-    <col min="3" max="3" width="43.90625" customWidth="1"/>
+    <col min="2" max="2" width="51.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="43.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="65" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" ht="65" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" ht="39" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" ht="104" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="104" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="65" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" ht="65" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="156" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" ht="156" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="104" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" ht="104" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" ht="39" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="221" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" ht="221" spans="1:3">
       <c r="A9">
         <v>101</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="117" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" ht="117" spans="1:3">
       <c r="A10">
         <v>102</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" ht="195" spans="1:3">
       <c r="A11">
         <v>103</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" ht="91" spans="1:3">
       <c r="A12">
         <v>104</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="13" ht="91" spans="1:3">
+      <c r="A13">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="104" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="104" spans="1:3">
+      <c r="A14">
         <v>201</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="65" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="104" spans="1:3">
+      <c r="A15">
         <v>202</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="78" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="117" spans="1:3">
+      <c r="A16">
         <v>203</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="104" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" ht="130" spans="1:3">
+      <c r="A17">
         <v>204</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="117" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" ht="195" spans="1:3">
+      <c r="A18">
         <v>205</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="65" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" ht="104" spans="1:3">
+      <c r="A19">
         <v>206</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="104" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" ht="143" spans="1:3">
+      <c r="A20">
         <v>207</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="156" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" ht="221" spans="1:3">
+      <c r="A21">
         <v>208</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="91" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" ht="130" spans="1:3">
+      <c r="A22">
         <v>209</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="104" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" ht="143" spans="1:3">
+      <c r="A23">
         <v>210</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="91" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" ht="234" spans="1:3">
+      <c r="A24">
         <v>211</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" ht="65" spans="1:3">
+      <c r="A25">
         <v>212</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="52" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" ht="143" spans="1:3">
+      <c r="A26">
         <v>213</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="65" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" ht="26" spans="1:3">
+      <c r="A27">
         <v>214</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="65" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" ht="78" spans="1:3">
+      <c r="A28">
         <v>215</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="52" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" ht="104" spans="1:3">
+      <c r="A29">
         <v>216</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" ht="104" spans="1:3">
+      <c r="A30">
+        <v>217</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" ht="104" spans="1:3">
+      <c r="A31">
+        <v>218</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" ht="156" spans="1:3">
+      <c r="A32">
+        <v>219</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" ht="117" spans="1:3">
+      <c r="A33">
+        <v>220</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" ht="130" spans="1:3">
+      <c r="A34">
+        <v>301</v>
+      </c>
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C34" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" ht="130" spans="1:3">
+      <c r="A35">
+        <v>302</v>
+      </c>
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="65" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>217</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="130" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>301</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="130" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>302</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="169" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="C35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" ht="169" spans="1:3">
+      <c r="A36">
         <v>303</v>
       </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="156" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" ht="156" spans="1:3">
+      <c r="A37">
         <v>304</v>
       </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="169" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" ht="169" spans="1:3">
+      <c r="A38">
         <v>305</v>
       </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>68</v>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/Rules.xlsx
+++ b/Assets/Resources/Data/Rules.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>Id</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Text</t>
@@ -429,10 +432,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -450,6 +453,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -458,10 +542,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -481,9 +566,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,81 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -580,15 +589,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,181 +606,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,23 +803,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,32 +812,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,6 +858,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -902,16 +905,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,127 +923,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1376,10 +1379,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1799,6 +1802,17 @@
         <v>305</v>
       </c>
       <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1828,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="65" spans="1:3">
@@ -1839,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="39" spans="1:3">
@@ -1850,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="104" spans="1:3">
@@ -1861,10 +1875,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="65" spans="1:3">
@@ -1872,10 +1886,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="156" spans="1:3">
@@ -1883,10 +1897,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="104" spans="1:3">
@@ -1894,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="39" spans="1:3">
@@ -1905,10 +1919,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="221" spans="1:3">
@@ -1916,10 +1930,10 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="117" spans="1:3">
@@ -1927,10 +1941,10 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="195" spans="1:3">
@@ -1938,10 +1952,10 @@
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="91" spans="1:3">
@@ -1949,10 +1963,10 @@
         <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="91" spans="1:3">
@@ -1960,10 +1974,10 @@
         <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="104" spans="1:3">
@@ -1971,10 +1985,10 @@
         <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="104" spans="1:3">
@@ -1982,10 +1996,10 @@
         <v>202</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="117" spans="1:3">
@@ -1993,10 +2007,10 @@
         <v>203</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="130" spans="1:3">
@@ -2004,10 +2018,10 @@
         <v>204</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="195" spans="1:3">
@@ -2015,10 +2029,10 @@
         <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="104" spans="1:3">
@@ -2026,10 +2040,10 @@
         <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="143" spans="1:3">
@@ -2037,10 +2051,10 @@
         <v>207</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="221" spans="1:3">
@@ -2048,10 +2062,10 @@
         <v>208</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="130" spans="1:3">
@@ -2059,10 +2073,10 @@
         <v>209</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="143" spans="1:3">
@@ -2070,10 +2084,10 @@
         <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="234" spans="1:3">
@@ -2081,10 +2095,10 @@
         <v>211</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="65" spans="1:3">
@@ -2092,10 +2106,10 @@
         <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="143" spans="1:3">
@@ -2103,10 +2117,10 @@
         <v>213</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="26" spans="1:3">
@@ -2114,10 +2128,10 @@
         <v>214</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="78" spans="1:3">
@@ -2125,10 +2139,10 @@
         <v>215</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" ht="104" spans="1:3">
@@ -2136,10 +2150,10 @@
         <v>216</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="104" spans="1:3">
@@ -2147,10 +2161,10 @@
         <v>217</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" ht="104" spans="1:3">
@@ -2158,10 +2172,10 @@
         <v>218</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="156" spans="1:3">
@@ -2169,10 +2183,10 @@
         <v>219</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" ht="117" spans="1:3">
@@ -2180,10 +2194,10 @@
         <v>220</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" ht="130" spans="1:3">
@@ -2191,10 +2205,10 @@
         <v>301</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" ht="130" spans="1:3">
@@ -2202,10 +2216,10 @@
         <v>302</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" ht="169" spans="1:3">
@@ -2213,10 +2227,10 @@
         <v>303</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" ht="156" spans="1:3">
@@ -2224,10 +2238,10 @@
         <v>304</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" ht="169" spans="1:3">
@@ -2235,10 +2249,10 @@
         <v>305</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Rules.xlsx
+++ b/Assets/Resources/Data/Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>Id</t>
   </si>
@@ -144,6 +144,19 @@
     <t>バトル終了時に戦闘不能状態のアルケミストはロストします。
 ロストしたアルケミストは以後ゲーム内に登場しなくなります。
 またヒロインだった場合はゲームオーバーになります。</t>
+  </si>
+  <si>
+    <t>思念継承について</t>
+  </si>
+  <si>
+    <t>思念を継承するとコマンドLvアップ・ヒロインのステータスアップ
+魔法を入手など様々な効果を得ることができます。
+思念の効果はステージ開始時に発揮されます。
+ヒロインと同じアルケミストの思念を選択することはできません。
+継承しても思念は消費されず何度でも選択することができます。
+ステージ終了時に新たな思念を入手することができます。
+思念の所持数は最大10個までです。
+全て同一のアルケミストの思念を所有することはできません。</t>
   </si>
   <si>
     <t>バトル状態の効果について</t>
@@ -432,10 +445,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -454,6 +467,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -461,7 +481,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,122 +597,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,181 +619,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,24 +810,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -835,11 +830,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,32 +882,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,6 +901,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -905,145 +918,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1379,10 +1392,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1521,21 +1534,21 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="B13">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1543,10 +1556,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1554,10 +1567,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1565,10 +1578,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1576,10 +1589,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1587,10 +1600,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1598,10 +1611,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1609,10 +1622,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1620,10 +1633,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1631,10 +1644,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1642,10 +1655,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1653,10 +1666,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1664,10 +1677,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1675,10 +1688,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1686,10 +1699,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1697,10 +1710,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1708,10 +1721,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B30">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1719,10 +1732,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1730,10 +1743,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B32">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1741,10 +1754,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B33">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1752,10 +1765,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="B34">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1763,10 +1776,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1774,10 +1787,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1785,10 +1798,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1796,23 +1809,34 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
+        <v>304</v>
+      </c>
+      <c r="B38">
+        <v>304</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
         <v>305</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>305</v>
       </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1825,10 +1849,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1969,9 +1993,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="91" spans="1:3">
+    <row r="13" ht="195" spans="1:3">
       <c r="A13">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -1980,9 +2004,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="104" spans="1:3">
+    <row r="14" ht="91" spans="1:3">
       <c r="A14">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -1993,7 +2017,7 @@
     </row>
     <row r="15" ht="104" spans="1:3">
       <c r="A15">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -2002,9 +2026,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="117" spans="1:3">
+    <row r="16" ht="104" spans="1:3">
       <c r="A16">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -2013,9 +2037,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="130" spans="1:3">
+    <row r="17" ht="117" spans="1:3">
       <c r="A17">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -2024,9 +2048,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="195" spans="1:3">
+    <row r="18" ht="130" spans="1:3">
       <c r="A18">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -2035,9 +2059,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="104" spans="1:3">
+    <row r="19" ht="195" spans="1:3">
       <c r="A19">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
@@ -2046,9 +2070,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" ht="143" spans="1:3">
+    <row r="20" ht="104" spans="1:3">
       <c r="A20">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
@@ -2057,9 +2081,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" ht="221" spans="1:3">
+    <row r="21" ht="143" spans="1:3">
       <c r="A21">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
@@ -2068,9 +2092,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="130" spans="1:3">
+    <row r="22" ht="221" spans="1:3">
       <c r="A22">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -2079,9 +2103,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" ht="143" spans="1:3">
+    <row r="23" ht="130" spans="1:3">
       <c r="A23">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -2090,9 +2114,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" ht="234" spans="1:3">
+    <row r="24" ht="143" spans="1:3">
       <c r="A24">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -2101,9 +2125,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" ht="65" spans="1:3">
+    <row r="25" ht="234" spans="1:3">
       <c r="A25">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
@@ -2112,9 +2136,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" ht="143" spans="1:3">
+    <row r="26" ht="65" spans="1:3">
       <c r="A26">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -2123,9 +2147,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="26" spans="1:3">
+    <row r="27" ht="143" spans="1:3">
       <c r="A27">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
@@ -2134,9 +2158,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="78" spans="1:3">
+    <row r="28" ht="26" spans="1:3">
       <c r="A28">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
@@ -2145,9 +2169,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" ht="104" spans="1:3">
+    <row r="29" ht="78" spans="1:3">
       <c r="A29">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
@@ -2158,7 +2182,7 @@
     </row>
     <row r="30" ht="104" spans="1:3">
       <c r="A30">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -2169,29 +2193,29 @@
     </row>
     <row r="31" ht="104" spans="1:3">
       <c r="A31">
+        <v>217</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" ht="104" spans="1:3">
+      <c r="A32">
         <v>218</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" ht="156" spans="1:3">
-      <c r="A32">
-        <v>219</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" ht="117" spans="1:3">
+    <row r="33" ht="156" spans="1:3">
       <c r="A33">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
@@ -2200,20 +2224,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" ht="130" spans="1:3">
+    <row r="34" ht="117" spans="1:3">
       <c r="A34">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" ht="130" spans="1:3">
       <c r="A35">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -2222,9 +2246,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" ht="169" spans="1:3">
+    <row r="36" ht="130" spans="1:3">
       <c r="A36">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s">
         <v>74</v>
@@ -2233,9 +2257,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" ht="156" spans="1:3">
+    <row r="37" ht="169" spans="1:3">
       <c r="A37">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s">
         <v>76</v>
@@ -2244,15 +2268,26 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" ht="169" spans="1:3">
+    <row r="38" ht="156" spans="1:3">
       <c r="A38">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39" ht="169" spans="1:3">
+      <c r="A39">
+        <v>305</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Rules.xlsx
+++ b/Assets/Resources/Data/Rules.xlsx
@@ -445,10 +445,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -467,7 +467,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,46 +504,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,11 +518,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,18 +534,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,29 +597,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,187 +619,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,6 +810,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -824,30 +833,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,13 +867,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,9 +902,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,145 +918,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1852,7 +1852,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>

--- a/Assets/Resources/Data/Rules.xlsx
+++ b/Assets/Resources/Data/Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -96,6 +96,14 @@
   <si>
     <t>一部のバトルを除きバトルから撤退できます。
 撤退するとバトルは終了します。</t>
+  </si>
+  <si>
+    <t>自動戦闘について</t>
+  </si>
+  <si>
+    <t>バトル中に「自動戦闘」状態を切り替えることで
+術者の行動選択を自動にすることができます。
+術者は状況に応じて行動するようになります。</t>
   </si>
   <si>
     <t>ゲームの流れ</t>
@@ -157,6 +165,19 @@
 ステージ終了時に新たな思念を入手することができます。
 思念の所持数は最大10個までです。
 全て同一のアルケミストの思念を所有することはできません。</t>
+  </si>
+  <si>
+    <t>結果パートについて</t>
+  </si>
+  <si>
+    <t>結果パートでは戦略コマンドで術者毎に選択した行動について
+結果が報告されます。
+救済執行コマンドを選択した場合は敵とバトルを行います。
+一度倒したことのある敵とのバトルについては
+術者にバトルの全てを任せることができます。
+ただし実際にバトルを行った結果が報告されるため
+術者はロストする可能性があります。
+術者の行動はバトルで「自動戦闘」状態にした時と同じです。</t>
   </si>
   <si>
     <t>バトル状態の効果について</t>
@@ -445,10 +466,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -466,26 +487,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,14 +516,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -535,6 +533,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -543,9 +555,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -573,6 +585,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -581,23 +609,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,13 +640,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,169 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,15 +831,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -838,6 +850,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -852,17 +899,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,35 +931,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -918,145 +939,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1392,10 +1413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1490,21 +1511,21 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1512,10 +1533,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1523,10 +1544,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1534,10 +1555,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1545,32 +1566,32 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="B15">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1578,10 +1599,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1589,10 +1610,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B18">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1600,10 +1621,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B19">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1611,10 +1632,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1622,10 +1643,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B21">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1633,10 +1654,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B22">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1644,10 +1665,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1655,10 +1676,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1666,10 +1687,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B25">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1677,10 +1698,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B26">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1688,10 +1709,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B27">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1699,10 +1720,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B28">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1710,10 +1731,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1721,10 +1742,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B30">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1732,10 +1753,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B31">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1743,10 +1764,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B32">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1754,10 +1775,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B33">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1765,10 +1786,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B34">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1776,10 +1797,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="B35">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1787,10 +1808,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="B36">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1798,10 +1819,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B37">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1809,10 +1830,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B38">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1820,23 +1841,45 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
+        <v>303</v>
+      </c>
+      <c r="B39">
+        <v>303</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>304</v>
+      </c>
+      <c r="B40">
+        <v>304</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
         <v>305</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>305</v>
       </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1849,10 +1892,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1949,9 +1992,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="221" spans="1:3">
+    <row r="9" ht="52" spans="1:3">
       <c r="A9">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -1960,9 +2003,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="117" spans="1:3">
+    <row r="10" ht="221" spans="1:3">
       <c r="A10">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1971,9 +2014,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="195" spans="1:3">
+    <row r="11" ht="117" spans="1:3">
       <c r="A11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1982,9 +2025,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="91" spans="1:3">
+    <row r="12" ht="195" spans="1:3">
       <c r="A12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1993,9 +2036,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="195" spans="1:3">
+    <row r="13" ht="91" spans="1:3">
       <c r="A13">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -2004,9 +2047,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="91" spans="1:3">
+    <row r="14" ht="195" spans="1:3">
       <c r="A14">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -2015,9 +2058,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="104" spans="1:3">
+    <row r="15" ht="182" spans="1:3">
       <c r="A15">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -2026,9 +2069,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="104" spans="1:3">
+    <row r="16" ht="91" spans="1:3">
       <c r="A16">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -2037,9 +2080,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="117" spans="1:3">
+    <row r="17" ht="104" spans="1:3">
       <c r="A17">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -2048,9 +2091,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="130" spans="1:3">
+    <row r="18" ht="104" spans="1:3">
       <c r="A18">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -2059,9 +2102,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="195" spans="1:3">
+    <row r="19" ht="117" spans="1:3">
       <c r="A19">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
@@ -2070,9 +2113,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" ht="104" spans="1:3">
+    <row r="20" ht="130" spans="1:3">
       <c r="A20">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
@@ -2081,9 +2124,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" ht="143" spans="1:3">
+    <row r="21" ht="195" spans="1:3">
       <c r="A21">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
@@ -2092,9 +2135,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="221" spans="1:3">
+    <row r="22" ht="104" spans="1:3">
       <c r="A22">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -2103,9 +2146,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" ht="130" spans="1:3">
+    <row r="23" ht="143" spans="1:3">
       <c r="A23">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -2114,9 +2157,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" ht="143" spans="1:3">
+    <row r="24" ht="221" spans="1:3">
       <c r="A24">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -2125,9 +2168,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" ht="234" spans="1:3">
+    <row r="25" ht="130" spans="1:3">
       <c r="A25">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
@@ -2136,9 +2179,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" ht="65" spans="1:3">
+    <row r="26" ht="143" spans="1:3">
       <c r="A26">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -2147,9 +2190,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" ht="143" spans="1:3">
+    <row r="27" ht="234" spans="1:3">
       <c r="A27">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
@@ -2158,9 +2201,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="26" spans="1:3">
+    <row r="28" ht="65" spans="1:3">
       <c r="A28">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
@@ -2169,9 +2212,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" ht="78" spans="1:3">
+    <row r="29" ht="143" spans="1:3">
       <c r="A29">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
@@ -2180,9 +2223,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" ht="104" spans="1:3">
+    <row r="30" ht="26" spans="1:3">
       <c r="A30">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -2191,9 +2234,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" ht="104" spans="1:3">
+    <row r="31" ht="78" spans="1:3">
       <c r="A31">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
         <v>64</v>
@@ -2204,62 +2247,62 @@
     </row>
     <row r="32" ht="104" spans="1:3">
       <c r="A32">
-        <v>218</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" ht="156" spans="1:3">
+    <row r="33" ht="104" spans="1:3">
       <c r="A33">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" ht="117" spans="1:3">
+    <row r="34" ht="104" spans="1:3">
       <c r="A34">
-        <v>220</v>
-      </c>
-      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" ht="130" spans="1:3">
+    <row r="35" ht="156" spans="1:3">
       <c r="A35">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" ht="130" spans="1:3">
+    <row r="36" ht="117" spans="1:3">
       <c r="A36">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" ht="169" spans="1:3">
+    <row r="37" ht="130" spans="1:3">
       <c r="A37">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s">
         <v>76</v>
@@ -2268,9 +2311,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" ht="156" spans="1:3">
+    <row r="38" ht="130" spans="1:3">
       <c r="A38">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s">
         <v>78</v>
@@ -2281,13 +2324,35 @@
     </row>
     <row r="39" ht="169" spans="1:3">
       <c r="A39">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="40" ht="156" spans="1:3">
+      <c r="A40">
+        <v>304</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" ht="169" spans="1:3">
+      <c r="A41">
+        <v>305</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Rules.xlsx
+++ b/Assets/Resources/Data/Rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7660" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>Id</t>
   </si>
@@ -118,7 +118,7 @@
 行動はLvアップや敵と戦ったり様々です。
 バトルパートでは敵と戦い勝利することで報酬を獲得できます。
 結果パートでは、戦略・バトルで得た報酬を受け取ります。
-3つのパートを経過すると1ターン進み</t>
+3つのパートを経過すると1ターン進みます。</t>
   </si>
   <si>
     <t>戦略パートについて</t>
@@ -274,8 +274,8 @@
 拘束を使用した対象が次の行動をする前に解除されます。
 拘束状態を付与した使用者が戦闘不能になった時
 その効果は解除されます。
-拘束状態は状態異常回復効果で解除できます。
-また状態異常無効状態中は拘束効果はかかりません。
+拘束状態は状態異常回復効果で解除できますが
+状態異常無効状態で防ぐことはできません。
 拘束状態の効果は重複せず
 拘束状態の対象に新たに付与はできません。</t>
   </si>
@@ -329,7 +329,8 @@
   </si>
   <si>
     <t>状態異常無効状態になると
-鈍足・スタン・火傷・暗闇・凍結状態にならなくなります。
+「鈍足・スタン・火傷・暗闇・凍結・呪い」状態にならなくなりま
+す。
 ただし既に状態異常無効で無効化できる状態に掛かっていた場合
 その効果は解除されません。
 状態異常無効状態の効果は重複せず
@@ -369,7 +370,12 @@
 一定回数攻撃を受けた時のダメージが0になります。
 火傷状態によるダメージは無効になりません。
 攻撃無効状態の効果は重複せず
-攻撃無効状態の対象に新たに付与はできません。</t>
+攻撃無効状態の対象に新たに付与はできません。
+&lt;ver0.0.10以降&gt;
+複数回攻撃するに対して攻撃無効の有効回数は攻撃回数毎にカウント
+されます。
+例）攻撃無効2回の状態で3回攻撃を受けた時攻撃無効2回は解除し
+3回目の攻撃を受けます。</t>
   </si>
   <si>
     <t>挑発</t>
@@ -404,19 +410,62 @@
 付与時の魔法名が異なる場合は重複して回復が発生します。</t>
   </si>
   <si>
-    <t>ヘカテー</t>
-  </si>
-  <si>
-    <t>ヘカテーは火属性が得意な攻撃型のアルケミストです。
+    <t>状態異常CA</t>
+  </si>
+  <si>
+    <t>状態異常CA状態になると
+「鈍足・スタン・火傷・暗闇・凍結・呪い」状態を受けた時
+使用者に同じ状態異常を付与DEFの値だけダメージを反射します。
+状態異常CAは状態異常無効状態で受けた時でも発動します。
+反射した状態異常に対して状態異常CA効果は発動しません。
+状態異常CA状態の効果は重複せず
+状態異常CA状態の対象に新たに付与はできません。</t>
+  </si>
+  <si>
+    <t>プリズム</t>
+  </si>
+  <si>
+    <t>プリズムは光属性の攻撃回数が使用回数分だけ増加します。
+増加した回数分の攻撃のダメージは増加回数分だけ除算されます。
+例）プリズム付与1回分の効果で攻撃した時
+2回目の攻撃は1回目の攻撃の半分の威力になります。
+プリズムの効果は重複して効果が発生します。</t>
+  </si>
+  <si>
+    <t>バフ解除</t>
+  </si>
+  <si>
+    <t>バフ解除は状態異常効果・能力が下がる効果を除いて
+すべて即時に解除します。</t>
+  </si>
+  <si>
+    <t>パッシブ無効</t>
+  </si>
+  <si>
+    <t>パッシブ無効になると
+(条件)を満たしてもパッシブスキルの効果が新たにかからなくなります。
+パッシブ無効が付与される前に発動したパッシブ効果は無効になりません。
+パッシブ無効状態の効果は重複せず
+パッシブ無効状態の対象に新たに付与はできません。</t>
+  </si>
+  <si>
+    <t>【豊穣の月女神】
+ヘカテー</t>
+  </si>
+  <si>
+    <t>【豊穣の月女神】ヘカテーは
+火属性が得意な攻撃型のアルケミストです。
 敵一列に攻撃できる「バーンストーム」でMPを消費し
 Demigod魔法の「インフェルノ」の発動が狙いやすいです。
 全体的にステータスが高いため扱いやすく初心者向けです。</t>
   </si>
   <si>
-    <t>キャラライン</t>
-  </si>
-  <si>
-    <t>キャロラインは雷属性が得意なソロ殲滅特化型のアルケミストです。
+    <t>【ワイヤープリンセス】
+キャロライン</t>
+  </si>
+  <si>
+    <t>【ワイヤープリンセス】キャロラインは
+雷属性が得意なソロ殲滅特化型のアルケミストです。
 敵単体に拘束をする「ライトニングウェブ」を成功させると
 Demogod魔法の「ステップリーダー」により
 拘束ダメージがアップします。
@@ -424,10 +473,12 @@
 その反面打たれ弱く乱戦には不向きです。</t>
   </si>
   <si>
-    <t>アリス</t>
-  </si>
-  <si>
-    <t>アリスは氷属性魔法が得意な反射盾型のアルケミストです。
+    <t>【不思議の国の守護神】
+アリス</t>
+  </si>
+  <si>
+    <t>【不思議の国の守護神】アリスは
+氷属性魔法が得意な反射盾型のアルケミストです。
 「カウンターオーラ」は一定時間待機し
 攻撃を受けた時にDEF値の分ダメージを返します。
 Demigod魔法の「フリジットシェル」は
@@ -437,10 +488,28 @@
 当人の攻撃性能は皆無です。</t>
   </si>
   <si>
-    <t>フリル</t>
-  </si>
-  <si>
-    <t>フリルは光属性魔法が得意な回復型のアルケミストです。
+    <t>【鏡の国の氷映譚】
+アリス</t>
+  </si>
+  <si>
+    <t>【鏡の国の氷映譚】アリスは
+氷属性魔法が得意な対状態異常型のアルケミストです。
+「アクアミラージュ」は味方に攻撃無効1回を付与します。
+Demigod魔法の「アンチドード」は
+敵が状態異常付与魔法を使用した時に発動し
+自身に状態異常CAを付与します。
+神化後のAwaken魔法「コオリノセカイヘ」は敵全体に
+永続して2倍ダメージの凍結を付与します。
+条件がそろえば最速で神化状態になれますが
+敵の種類によっては神化できない可能性もあります。</t>
+  </si>
+  <si>
+    <t>【イノセンススマイル】
+フリル</t>
+  </si>
+  <si>
+    <t>【イノセンススマイル】フリルは
+光属性魔法が得意な回復型のアルケミストです。
 「ヒーリング」によりHpが回復できアンデッドに対しては
 ダメージを与えることができます。
 自身以外の味方全員が戦闘不能になった時
@@ -449,10 +518,29 @@
 当人のステータスは全体的に低めです。</t>
   </si>
   <si>
-    <t>ニュクス</t>
-  </si>
-  <si>
-    <t>ニュクスは闇属性魔法が得意な破滅型のアルケミストです。
+    <t>【ライブフォーリナー】
+フリル</t>
+  </si>
+  <si>
+    <t>【ライブフォーリナー】フリルは
+光属性魔法が得意な手数攻撃型のアルケミストです。
+「プリズムリフレクター」のプリズム効果により攻撃回数が増え
+効率的にダメージを与えることができます。
+自身の行動で相手を撃破した時
+Demigod魔法の「ブレークザウォール」で
+相手のパッシブ付与を無効化できます。
+神化後のAwaken魔法「トリニティレイ」は3回連続攻撃で
+プリズム効果の分だけ攻撃回数が乗算して増加します。
+プリズム効果により効率よく攻撃ができますが
+条件が整うまで時間がかかります。</t>
+  </si>
+  <si>
+    <t>【Determination2Die】
+ニュクス</t>
+  </si>
+  <si>
+    <t>【Determination2Die】ニュクスは
+闇属性魔法が得意な破滅型のアルケミストです。
 戦闘不能になった時1度だけ蘇生し
 攻撃性能の高いDemigod魔法の「ディストラクション」を発動します。
 神化後のAwaken魔法「カオスペイン」はさらに攻撃性能が高く
@@ -466,10 +554,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -489,9 +577,70 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,8 +658,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,45 +681,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,17 +703,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,37 +718,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -640,6 +728,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -652,85 +758,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,79 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,17 +922,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,37 +972,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,16 +1005,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -939,149 +1027,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1092,6 +1180,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1413,10 +1504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -1819,10 +1910,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="B37">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1830,10 +1921,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="B38">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1841,10 +1932,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="B39">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1852,10 +1943,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="B40">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1863,23 +1954,89 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
+        <v>301</v>
+      </c>
+      <c r="B41">
+        <v>301</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>302</v>
+      </c>
+      <c r="B42">
+        <v>302</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>303</v>
+      </c>
+      <c r="B43">
+        <v>303</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>304</v>
+      </c>
+      <c r="B44">
+        <v>304</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
         <v>305</v>
       </c>
-      <c r="B41">
+      <c r="B45">
         <v>305</v>
       </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>306</v>
+      </c>
+      <c r="B46">
+        <v>306</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>307</v>
+      </c>
+      <c r="B47">
+        <v>307</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1892,10 +2049,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2157,7 +2314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" ht="221" spans="1:3">
+    <row r="24" ht="208" spans="1:3">
       <c r="A24">
         <v>208</v>
       </c>
@@ -2212,7 +2369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" ht="143" spans="1:3">
+    <row r="29" ht="156" spans="1:3">
       <c r="A29">
         <v>213</v>
       </c>
@@ -2256,7 +2413,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" ht="104" spans="1:3">
+    <row r="33" ht="208" spans="1:3">
       <c r="A33">
         <v>217</v>
       </c>
@@ -2300,59 +2457,125 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" ht="130" spans="1:3">
+    <row r="37" ht="195" spans="1:3">
       <c r="A37">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="38" ht="130" spans="1:3">
       <c r="A38">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" ht="169" spans="1:3">
+    <row r="39" ht="39" spans="1:3">
       <c r="A39">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" ht="156" spans="1:3">
+    <row r="40" ht="130" spans="1:3">
       <c r="A40">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" ht="169" spans="1:3">
+    <row r="41" ht="130" spans="1:3">
       <c r="A41">
-        <v>305</v>
-      </c>
-      <c r="B41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42" ht="143" spans="1:3">
+      <c r="A42">
+        <v>302</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" ht="169" spans="1:3">
+      <c r="A43">
+        <v>303</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" ht="221" spans="1:3">
+      <c r="A44">
+        <v>304</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" ht="156" spans="1:3">
+      <c r="A45">
+        <v>305</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" ht="234" spans="1:3">
+      <c r="A46">
+        <v>306</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" ht="169" spans="1:3">
+      <c r="A47">
+        <v>307</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Rules.xlsx
+++ b/Assets/Resources/Data/Rules.xlsx
@@ -554,8 +554,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -576,98 +576,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,23 +607,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,6 +672,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -728,31 +728,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,151 +896,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,17 +922,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,15 +944,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,17 +963,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,21 +1019,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1027,7 +1027,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,7 +1036,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,131 +1045,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,9 +1180,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2052,7 +2049,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -2505,7 +2502,7 @@
       <c r="A41">
         <v>301</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2516,7 +2513,7 @@
       <c r="A42">
         <v>302</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2527,7 +2524,7 @@
       <c r="A43">
         <v>303</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2538,7 +2535,7 @@
       <c r="A44">
         <v>304</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2549,7 +2546,7 @@
       <c r="A45">
         <v>305</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2560,7 +2557,7 @@
       <c r="A46">
         <v>306</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2571,7 +2568,7 @@
       <c r="A47">
         <v>307</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C47" s="1" t="s">
